--- a/QLVatTu_KetQua.xlsx
+++ b/QLVatTu_KetQua.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>Enter xong</t>
+  </si>
+  <si>
+    <t>Chưa cần làm</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,6 +542,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -752,6 +761,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2259,8 +2271,8 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2359,6 +2371,9 @@
         <v>17</v>
       </c>
       <c r="E8" s="7"/>
+      <c r="G8" s="45" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>

--- a/QLVatTu_KetQua.xlsx
+++ b/QLVatTu_KetQua.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -732,6 +732,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -761,9 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1784,13 +1784,13 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="36">
         <v>3</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1799,9 +1799,9 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2271,8 +2271,8 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2349,36 +2349,39 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="36">
         <v>3</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>83</v>
       </c>
       <c r="E7" s="7"/>
+      <c r="G7" s="34" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="35" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="3" t="s">
         <v>82</v>
       </c>
@@ -2401,6 +2404,9 @@
         <v>18</v>
       </c>
       <c r="E10" s="7"/>
+      <c r="G10" s="35" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -2459,11 +2465,11 @@
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="43" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="38" t="s">
         <v>95</v>
       </c>
       <c r="G14" s="33" t="s">
@@ -2480,9 +2486,9 @@
       <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="37"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -2494,9 +2500,9 @@
       <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="37"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -2508,9 +2514,9 @@
       <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="44"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="37"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:10" ht="162.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
@@ -2576,7 +2582,7 @@
       <c r="A22" s="21">
         <v>1</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="39" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="29" t="s">
@@ -2598,7 +2604,7 @@
       <c r="A23" s="21">
         <v>2</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="8" t="s">
         <v>15</v>
       </c>
@@ -2614,7 +2620,7 @@
       <c r="A24" s="21">
         <v>3</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="8" t="s">
         <v>54</v>
       </c>
@@ -2627,7 +2633,7 @@
       <c r="A25" s="21">
         <v>4</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="8" t="s">
         <v>54</v>
       </c>
@@ -2640,7 +2646,7 @@
       <c r="A26" s="21">
         <v>5</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -2658,7 +2664,7 @@
       <c r="A27" s="21">
         <v>6</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="8" t="s">
         <v>60</v>
       </c>
@@ -2671,7 +2677,7 @@
       <c r="A28" s="21">
         <v>7</v>
       </c>
-      <c r="B28" s="39"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="8" t="s">
         <v>60</v>
       </c>
@@ -2684,7 +2690,7 @@
       <c r="A29" s="21">
         <v>8</v>
       </c>
-      <c r="B29" s="39"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="8" t="s">
         <v>60</v>
       </c>
@@ -2703,7 +2709,7 @@
       <c r="A30" s="21">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="8" t="s">
         <v>15</v>
       </c>
@@ -2730,7 +2736,7 @@
       <c r="A32" s="8">
         <v>1</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2745,7 +2751,7 @@
       <c r="A33" s="8">
         <v>2</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="7" t="s">
         <v>54</v>
       </c>
@@ -2758,7 +2764,7 @@
       <c r="A34" s="8">
         <v>3</v>
       </c>
-      <c r="B34" s="40"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="7" t="s">
         <v>15</v>
       </c>
@@ -2774,7 +2780,7 @@
       <c r="A35" s="8">
         <v>4</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="39" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -2795,7 +2801,7 @@
       <c r="A36" s="8">
         <v>5</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="7" t="s">
         <v>60</v>
       </c>
@@ -2808,7 +2814,7 @@
       <c r="A37" s="8">
         <v>6</v>
       </c>
-      <c r="B37" s="40"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
       </c>

--- a/QLVatTu_KetQua.xlsx
+++ b/QLVatTu_KetQua.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="102">
   <si>
     <t>STT</t>
   </si>
@@ -433,16 +433,7 @@
     <t>hoàng anh</t>
   </si>
   <si>
-    <t>bỏ đk bắt buộc nhập đơn vị tính</t>
-  </si>
-  <si>
-    <t>chia đôi, dân tộc, quê quán, đảng</t>
-  </si>
-  <si>
     <t>Xong</t>
-  </si>
-  <si>
-    <t>Enter xong</t>
   </si>
   <si>
     <t>Chưa cần làm</t>
@@ -638,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -711,9 +702,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -724,9 +712,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1784,13 +1769,13 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1799,9 +1784,9 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2271,8 +2256,8 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2349,45 +2334,45 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>83</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="G7" s="34" t="s">
-        <v>102</v>
+      <c r="G7" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="G8" s="35" t="s">
-        <v>104</v>
+      <c r="G8" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="G9" s="34" t="s">
-        <v>102</v>
+      <c r="G9" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="38.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2404,8 +2389,8 @@
         <v>18</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="G10" s="35" t="s">
-        <v>104</v>
+      <c r="G10" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2431,29 +2416,32 @@
         <v>53</v>
       </c>
       <c r="E12" s="7"/>
+      <c r="G12" s="32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="69" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>2</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -2465,15 +2453,15 @@
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="41" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>103</v>
+      <c r="G14" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2486,9 +2474,12 @@
       <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="44"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="38"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -2500,9 +2491,12 @@
       <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -2514,9 +2508,12 @@
       <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="38"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="162.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
@@ -2535,8 +2532,8 @@
       <c r="F18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>101</v>
+      <c r="G18" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="J18" s="16"/>
     </row>
@@ -2582,29 +2579,29 @@
       <c r="A22" s="21">
         <v>1</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" ht="196.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>2</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="8" t="s">
         <v>15</v>
       </c>
@@ -2612,15 +2609,15 @@
         <v>80</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="G23" s="34" t="s">
-        <v>102</v>
+      <c r="G23" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="39" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>3</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="8" t="s">
         <v>54</v>
       </c>
@@ -2633,7 +2630,7 @@
       <c r="A25" s="21">
         <v>4</v>
       </c>
-      <c r="B25" s="41"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="8" t="s">
         <v>54</v>
       </c>
@@ -2646,7 +2643,7 @@
       <c r="A26" s="21">
         <v>5</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -2656,15 +2653,15 @@
         <v>73</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="G26" s="34" t="s">
-        <v>102</v>
+      <c r="G26" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>6</v>
       </c>
-      <c r="B27" s="40"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="8" t="s">
         <v>60</v>
       </c>
@@ -2672,12 +2669,15 @@
         <v>94</v>
       </c>
       <c r="E27" s="7"/>
+      <c r="G27" s="32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="38.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>7</v>
       </c>
-      <c r="B28" s="40"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="8" t="s">
         <v>60</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="A29" s="21">
         <v>8</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="8" t="s">
         <v>60</v>
       </c>
@@ -2701,15 +2701,15 @@
       <c r="F29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="34" t="s">
-        <v>102</v>
+      <c r="G29" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>9</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="8" t="s">
         <v>15</v>
       </c>
@@ -2717,8 +2717,8 @@
         <v>56</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="G30" s="34" t="s">
-        <v>102</v>
+      <c r="G30" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="32.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
       <c r="A32" s="8">
         <v>1</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2751,7 +2751,7 @@
       <c r="A33" s="8">
         <v>2</v>
       </c>
-      <c r="B33" s="40"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="7" t="s">
         <v>54</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="A34" s="8">
         <v>3</v>
       </c>
-      <c r="B34" s="41"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="7" t="s">
         <v>15</v>
       </c>
@@ -2772,15 +2772,15 @@
         <v>79</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="G34" s="34" t="s">
-        <v>102</v>
+      <c r="G34" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="33" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>4</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="37" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -2793,15 +2793,15 @@
       <c r="F35" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="34" t="s">
-        <v>102</v>
+      <c r="G35" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="33" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>5</v>
       </c>
-      <c r="B36" s="40"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="7" t="s">
         <v>60</v>
       </c>
@@ -2809,12 +2809,15 @@
         <v>59</v>
       </c>
       <c r="E36" s="7"/>
+      <c r="G36" s="32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="47.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>6</v>
       </c>
-      <c r="B37" s="41"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="7" t="s">
         <v>15</v>
       </c>
@@ -2822,8 +2825,8 @@
         <v>57</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="G37" s="34" t="s">
-        <v>102</v>
+      <c r="G37" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="23.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
